--- a/matriz_cumplimiento_RFP_NI_BS.xlsx
+++ b/matriz_cumplimiento_RFP_NI_BS.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="JV26VPF8k9a7o3e1Iv0blxc2Q0Bn7BIXSHd/XzeBLvI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="oWLdiRccTVvtJUwX7L0KNuZXBTIKiFt2bbCgwW1IRso="/>
     </ext>
   </extLst>
 </workbook>
@@ -114,7 +114,10 @@
     <t>Asignación de líderes certificados en sitio por cuadrilla, responsables de la supervisión técnica y el registro de datos en tiempo real mediante nuestro Módulo de Operaciones. Cada líder gestiona incidencias y productividad a través de Redmine, asegurando trazabilidad y comunicación directa con gerencia.</t>
   </si>
   <si>
-    <t>Supervisión directa 24/7.</t>
+    <t>Ver plan en la evaluacion técnica (Pág. X).</t>
+  </si>
+  <si>
+    <t>La disponibilidad de líderes garantiza una reducción del 95% en errores de armado y etiquetado, y una respuesta inmediata ante variaciones en la carga de contenedores.</t>
   </si>
   <si>
     <t>Entrega de reportes diarios/semanales</t>
@@ -123,10 +126,7 @@
     <t>Reportería Automatizada: Extracción de datos del reloj biométrico hacia nuestro Módulo de Operaciones para entrega de métricas de productividad y horas.</t>
   </si>
   <si>
-    <t>Ver plan en la evaluacion técnica (Pág. X).</t>
-  </si>
-  <si>
-    <t>La disponibilidad de líderes garantiza una reducción del 95% en errores de armado y etiquetado, y una respuesta inmediata ante variaciones en la carga de contenedores.</t>
+    <t>Transparencia total de datos.</t>
   </si>
   <si>
     <t>Plan de sostenibilidad ambiental y social</t>
@@ -221,10 +221,10 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -512,11 +512,11 @@
         <v>13</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -527,11 +527,11 @@
         <v>16</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -542,11 +542,11 @@
         <v>19</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -557,11 +557,11 @@
         <v>22</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -572,11 +572,11 @@
         <v>25</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -587,11 +587,11 @@
         <v>28</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -601,29 +601,29 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -634,11 +634,11 @@
         <v>38</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -649,11 +649,11 @@
         <v>41</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -664,7 +664,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
